--- a/biology/Botanique/Jardin_botanique_de_Besançon/Jardin_botanique_de_Besançon.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Besançon/Jardin_botanique_de_Besançon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_Besan%C3%A7on</t>
+          <t>Jardin_botanique_de_Besançon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique de Besançon est un jardin botanique municipal de Besançon et de l'université de Franche-Comté créé en 1957. Labellisé « Jardins botaniques de France et des pays francophones » il est riche d'environ 5 000 espèces de plantes botaniques réparties sur 1 hectare dans des milieux reconstitués représentatifs de la Franche-Comté et du monde entier.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_Besan%C3%A7on</t>
+          <t>Jardin_botanique_de_Besançon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Historique, caractéristiques et fonctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier jardin botanique de Besançon aurait été créé vers 1580 puis déplacé sur une dizaine de sites différents de la ville[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier jardin botanique de Besançon aurait été créé vers 1580 puis déplacé sur une dizaine de sites différents de la ville.
 En 1957  l’université de Franche-Comté construit ce site consacré aux sciences du vivant place Leclerc. Tout au long de ses allées, il donne à voir environ 5 000 espèces réparties dans : 
 des milieux reconstitués représentatifs de la Franche-Comté, dont la tourbière et ses différents stades d’évolution, la corniche calcaire du plateau jurassien ... des ambiances variables selon les saisons de divers endroits du monde, avec les rocailles de l’hémisphère nord ...
 des collections ludiques avec le jardin potager, ou le circuit des cinq sens ...
